--- a/final_output.xlsx
+++ b/final_output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32,13 +32,13 @@
     <t>Least Difficult</t>
   </si>
   <si>
-    <t>Wild Iris Loop, Bearberry Trail, Bluebird  Meadow, Cone Flower Trail, Scenic View Trail, Silver Fox Trail, Hidden Fawn Trail</t>
+    <t>Wild Iris Loop, Bearberry Trail, Hidden Fawn Trail, Scenic View Trail, Bluebird  Meadow, Cone Flower Trail, Silver Fox Trail</t>
   </si>
   <si>
     <t>More Difficult</t>
   </si>
   <si>
-    <t>Ponderosa Trail, Wilmot Trail, Ranch View Trail, Brothers Trail, Homestead Trail, Evergreen Mtn East, Mountain Muhly Trail, Summit Trail, Evergreen Mtn West</t>
+    <t>Mountain Muhly Trail, Homestead Trail, Evergreen Mtn East, Ranch View Trail, Wilmot Trail, Ponderosa Trail, Summit Trail, Brothers Trail, Evergreen Mtn West</t>
   </si>
   <si>
     <t>Most Difficult</t>
@@ -56,16 +56,16 @@
     <t>Cathedral Spires Park</t>
   </si>
   <si>
-    <t>Cynical, Sunshine</t>
+    <t>Sunshine, Cynical</t>
   </si>
   <si>
     <t>Centennial Cone Park</t>
   </si>
   <si>
-    <t>Mayhem Gulch Trail, Juniper Trail, Evening Sun Loop</t>
-  </si>
-  <si>
-    <t>Travois Trail, Elk Range Trail</t>
+    <t>Evening Sun Loop, Mayhem Gulch Trail, Juniper Trail</t>
+  </si>
+  <si>
+    <t>Elk Range Trail, Travois Trail</t>
   </si>
   <si>
     <t>Clear Creek Canyon Park</t>
@@ -77,7 +77,7 @@
     <t>Crown Hill Park</t>
   </si>
   <si>
-    <t>Trail No. 104, Trail No. 114, Trail No. 127, Trail No. 112, Trail No. 103, Trail No. 95, Trail No. 116, Lake Loop Trail, Trail No. 717, Trail No. 711, Trail No. 105, Trail No. 827, Trail No. 129, Trail No. 99, Trail No. 419, Trail No. 117, Trail No. 715, Trail No. 716, Trail No. 111, Trail No. 826, Trail No. 98, Trail No. 718, Trail No. 92, Trail No. 101, Trail No. 128, Trail No. 713, Trail No. 126, Trail No. 418, Trail No. 96, Trail No. 130, Trail No. 94, Nature Trail, Trail No. 824, Outer Loop Trail, Trail No. 825, Trail No. 97, Trail No. 109, Trail No. 714, Trail No. 110, Trail No. 106, Trail No. 93, Trail No. 102, Trail No. 720, Trail No. 91, Trail No. 115, Trail No. 100, Trail No. 712, Trail No. 88</t>
+    <t>Trail No. 128, Trail No. 418, Trail No. 102, Trail No. 91, Trail No. 130, Trail No. 103, Lake Loop Trail, Trail No. 716, Trail No. 718, Trail No. 129, Trail No. 109, Trail No. 825, Trail No. 110, Trail No. 111, Trail No. 94, Trail No. 117, Trail No. 715, Trail No. 826, Trail No. 419, Trail No. 88, Trail No. 95, Outer Loop Trail, Trail No. 824, Trail No. 115, Trail No. 98, Trail No. 126, Trail No. 100, Trail No. 104, Trail No. 116, Trail No. 112, Trail No. 827, Trail No. 717, Trail No. 92, Trail No. 101, Trail No. 106, Trail No. 127, Trail No. 114, Trail No. 93, Trail No. 97, Nature Trail, Trail No. 712, Trail No. 96, Trail No. 711, Trail No. 105, Trail No. 714, Trail No. 720, Trail No. 99, Trail No. 713</t>
   </si>
   <si>
     <t>Deer Creek Canyon Park</t>
@@ -86,7 +86,7 @@
     <t>Homesteader Trail</t>
   </si>
   <si>
-    <t>Red Mesa Loop, Golden Eagle Trail, Black Bear Trail, Plymouth Mtn Trail, Meadowlark Trail, Rattlesnake Gulch Trail</t>
+    <t>Black Bear Trail, Rattlesnake Gulch Trail, Meadowlark Trail, Golden Eagle Trail, Plymouth Mtn Trail, Red Mesa Loop</t>
   </si>
   <si>
     <t>Plymouth Creek Trail</t>
@@ -95,7 +95,7 @@
     <t>Flying J Ranch Park</t>
   </si>
   <si>
-    <t>North Access Trail, Junction House Trail, Shadow Pine Loop</t>
+    <t>Junction House Trail, North Access Trail, Shadow Pine Loop</t>
   </si>
   <si>
     <t>Unlisted</t>
@@ -119,28 +119,28 @@
     <t>Hiwan Homestead Museum</t>
   </si>
   <si>
-    <t>Hiwan Homestead, Hiwan Interpretive Trail</t>
+    <t>Hiwan Interpretive Trail, Hiwan Homestead</t>
   </si>
   <si>
     <t>Lair o the Bear Park</t>
   </si>
   <si>
-    <t>Castor Cutoff Trail, Creekside Loop Trail, Creekside Trail</t>
-  </si>
-  <si>
-    <t>Bear Creek Trail, Bruin Bluff Trail</t>
+    <t>Creekside Trail, Creekside Loop Trail, Castor Cutoff Trail</t>
+  </si>
+  <si>
+    <t>Bruin Bluff Trail, Bear Creek Trail</t>
   </si>
   <si>
     <t>Lookout Mountain Nature Center and Preserve</t>
   </si>
   <si>
-    <t>Forest Loop Trail, Meadow Loop Trail, Buffalo Bill Trail</t>
+    <t>Forest Loop Trail, Buffalo Bill Trail, Meadow Loop Trail</t>
   </si>
   <si>
     <t>Matthews/Winters Park</t>
   </si>
   <si>
-    <t>Zorro Trail, Red Rocks Trail, Village Walk Trail, Village Walk</t>
+    <t>Village Walk Trail, Zorro Trail, Village Walk, Red Rocks Trail</t>
   </si>
   <si>
     <t>Morrison Slide Trail</t>
@@ -158,10 +158,10 @@
     <t>Meyer Ranch Park</t>
   </si>
   <si>
-    <t>Owl's Perch, Lodgepole Loop</t>
-  </si>
-  <si>
-    <t>Old Ski Run, Sunny Aspen</t>
+    <t>Lodgepole Loop, Owl's Perch</t>
+  </si>
+  <si>
+    <t>Sunny Aspen, Old Ski Run</t>
   </si>
   <si>
     <t>Mount Falcon Park</t>
@@ -170,7 +170,7 @@
     <t>Meadow Trail</t>
   </si>
   <si>
-    <t>Walker's Dream Trail, Devil's Elbow Trail, Tower Trail, Old Ute Trail, Two Dog Trail, Turkey Trot Trail, Castle Trail</t>
+    <t>Walker's Dream Trail, Castle Trail, Tower Trail, Devil's Elbow Trail, Turkey Trot Trail, Two Dog Trail, Old Ute Trail</t>
   </si>
   <si>
     <t>Parmalee Trail</t>
@@ -182,13 +182,13 @@
     <t>Mount Galbraith Park</t>
   </si>
   <si>
-    <t>Cedar Gulch Trail, Mount Galbraith Loop, Nightbird Gulch Trail</t>
+    <t>Mount Galbraith Loop, Cedar Gulch Trail, Nightbird Gulch Trail</t>
   </si>
   <si>
     <t>Non-Jeffco Open Space</t>
   </si>
   <si>
-    <t>Clear Creek Trail, Pioneer Trail</t>
+    <t>Pioneer Trail, Clear Creek Trail</t>
   </si>
   <si>
     <t>Dakota Ridge Trail</t>
@@ -197,13 +197,13 @@
     <t>North Table Mountain Park</t>
   </si>
   <si>
-    <t>Lichen Peak, Wyoming Circle Trail, Tablerock Trail, Tilting Mesa Trail, Mesa Spur, Rim Rock Trail</t>
-  </si>
-  <si>
-    <t>Lithic Trail, Mesa Top Trail, West Quarry Trail, Climbing Access Trail, Cottonwood Canyon Trail</t>
-  </si>
-  <si>
-    <t>North Table Loop, Golden Cliffs Trail</t>
+    <t>Lichen Peak, Tablerock Trail, Rim Rock Trail, Wyoming Circle Trail, Tilting Mesa Trail, Mesa Spur</t>
+  </si>
+  <si>
+    <t>Climbing Access Trail, Cottonwood Canyon Trail, West Quarry Trail, Lithic Trail, Mesa Top Trail</t>
+  </si>
+  <si>
+    <t>Golden Cliffs Trail, North Table Loop</t>
   </si>
   <si>
     <t>Wyoming Circle</t>
@@ -212,19 +212,19 @@
     <t>Pine Valley Ranch Park</t>
   </si>
   <si>
-    <t>Shelter Trail, Pine Lake Loop, Fishing Trail, Owls Picnic Trail, North Fork View Trail, Narrow Gauge Trail</t>
-  </si>
-  <si>
-    <t>Buck Gulch Trail, Star View Trail, Park View</t>
+    <t>Fishing Trail, Shelter Trail, Pine Lake Loop, Owls Picnic Trail, North Fork View Trail, Narrow Gauge Trail</t>
+  </si>
+  <si>
+    <t>Park View, Buck Gulch Trail, Star View Trail</t>
   </si>
   <si>
     <t>Reynolds Park</t>
   </si>
   <si>
-    <t>Chickadee Trail, Songbird Trail</t>
-  </si>
-  <si>
-    <t>North Fork Trail, Hummingbird Trail, Elkhorn Trail, Oxen Draw Trail, Raven's Roost Trail, Eagle's View Trail</t>
+    <t>Songbird Trail, Chickadee Trail</t>
+  </si>
+  <si>
+    <t>Raven's Roost Trail, Hummingbird Trail, North Fork Trail, Eagle's View Trail, Elkhorn Trail, Oxen Draw Trail</t>
   </si>
   <si>
     <t>South Table Mountain Park</t>
@@ -248,7 +248,7 @@
     <t>Whippletree Trail, Rawhide Trail</t>
   </si>
   <si>
-    <t>Maverick Trail, Belcher Hill Trail, Waterhole Trail, Round-Up Loop Trail, Shorthorn Trail, Sawmill Trail, Wrangler's Run Trail</t>
+    <t>Maverick Trail, Waterhole Trail, Belcher Hill Trail, Sawmill Trail, Wrangler's Run Trail, Round-Up Loop Trail, Shorthorn Trail</t>
   </si>
   <si>
     <t>Longhorn Trail, Mustang Trail</t>
